--- a/Burndown Fixed.xlsx
+++ b/Burndown Fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\CAPSTONE\proposal\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E3DC8-1396-4332-A230-FACC11680443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916BE604-A78D-4F56-835C-D53B224C4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="2310" windowWidth="21600" windowHeight="11175" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="12" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Planned</t>
   </si>
@@ -228,6 +228,39 @@
   </si>
   <si>
     <t>Went over the limit.</t>
+  </si>
+  <si>
+    <t>ac-week12</t>
+  </si>
+  <si>
+    <t>ind-week12</t>
+  </si>
+  <si>
+    <t>At this stage, the original work plan of the industry was changed, namely the number of hours. As described in the report, this is due to the absence of the supervisor for two weeks, and therefore it was necessary to adjust the planned hours in order to have time to work everything within the given time frame.</t>
+  </si>
+  <si>
+    <t>sumbit everything!!!!</t>
+  </si>
+  <si>
+    <t>ind-week15</t>
+  </si>
+  <si>
+    <t>Fewer hours were worked than planned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is due to the fact that the student worked overtime earlier, so the student may work less than planned hours.</t>
+  </si>
+  <si>
+    <t>There are no significant changes for the project.</t>
+  </si>
+  <si>
+    <t>Monitor hours worked and planned dates to complete the project within the allotted time frame.</t>
+  </si>
+  <si>
+    <t>ac-week16</t>
+  </si>
+  <si>
+    <t>ind-week16</t>
   </si>
 </sst>
 </file>
@@ -325,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +764,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -906,15 +945,6 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,6 +965,13 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,6 +1046,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,9 +1069,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFEBF7FF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFCC0099"/>
     </mruColors>
@@ -1455,6 +1504,18 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,6 +2268,15 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3686,13 +3756,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>362856</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>64135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4115,10 +4185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312A363F-0D2F-4E2F-961C-0E49959BE584}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4138,7 +4208,7 @@
     <col min="17" max="17" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
@@ -4159,7 +4229,7 @@
       <c r="P1" s="84"/>
       <c r="Q1" s="84"/>
     </row>
-    <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="83" t="s">
         <v>16</v>
       </c>
@@ -4186,7 +4256,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
@@ -4237,7 +4307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <v>45131</v>
       </c>
@@ -4292,7 +4362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39">
         <v>45138</v>
       </c>
@@ -4343,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39">
         <v>45145</v>
       </c>
@@ -4394,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39">
         <v>45152</v>
       </c>
@@ -4445,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39">
         <v>45159</v>
       </c>
@@ -4496,7 +4566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39">
         <v>45166</v>
       </c>
@@ -4547,7 +4617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39">
         <v>45173</v>
       </c>
@@ -4598,7 +4668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39">
         <v>45180</v>
       </c>
@@ -4649,7 +4719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39">
         <v>45187</v>
       </c>
@@ -4700,7 +4770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39">
         <v>45194</v>
       </c>
@@ -4751,7 +4821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39">
         <v>45201</v>
       </c>
@@ -4801,8 +4871,12 @@
       <c r="Q14" s="44">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y14" s="81"/>
+      <c r="Z14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39">
         <v>45208</v>
       </c>
@@ -4853,7 +4927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39">
         <v>45215</v>
       </c>
@@ -4959,21 +5033,49 @@
       <c r="A18" s="39">
         <v>45229</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="42">
+        <v>0</v>
+      </c>
+      <c r="C18" s="42">
+        <v>0</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>2</v>
+      </c>
+      <c r="H18" s="43">
+        <v>3</v>
+      </c>
       <c r="I18" s="86"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="43"/>
+      <c r="J18" s="35">
+        <v>4.5</v>
+      </c>
+      <c r="K18" s="42">
+        <v>8</v>
+      </c>
+      <c r="L18" s="42">
+        <v>8</v>
+      </c>
+      <c r="M18" s="42">
+        <v>8</v>
+      </c>
+      <c r="N18" s="42">
+        <v>0</v>
+      </c>
+      <c r="O18" s="42">
+        <v>0</v>
+      </c>
+      <c r="P18" s="43">
+        <v>0</v>
+      </c>
       <c r="Q18" s="44">
         <v>13</v>
       </c>
@@ -4982,21 +5084,49 @@
       <c r="A19" s="39">
         <v>45236</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="B19" s="42">
+        <v>0</v>
+      </c>
+      <c r="C19" s="42">
+        <v>0</v>
+      </c>
+      <c r="D19" s="42">
+        <v>4</v>
+      </c>
+      <c r="E19" s="42">
+        <v>2</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <v>2</v>
+      </c>
+      <c r="H19" s="43">
+        <v>3</v>
+      </c>
       <c r="I19" s="86"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="43"/>
+      <c r="J19" s="111">
+        <v>4.5</v>
+      </c>
+      <c r="K19" s="42">
+        <v>8</v>
+      </c>
+      <c r="L19" s="42">
+        <v>0</v>
+      </c>
+      <c r="M19" s="42">
+        <v>0</v>
+      </c>
+      <c r="N19" s="53">
+        <v>8</v>
+      </c>
+      <c r="O19" s="42">
+        <v>0</v>
+      </c>
+      <c r="P19" s="43">
+        <v>0</v>
+      </c>
       <c r="Q19" s="44">
         <v>14</v>
       </c>
@@ -5005,7 +5135,9 @@
       <c r="A20" s="39">
         <v>45243</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="42">
+        <v>1</v>
+      </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -5013,10 +5145,18 @@
       <c r="G20" s="42"/>
       <c r="H20" s="43"/>
       <c r="I20" s="86"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="J20" s="35">
+        <v>8</v>
+      </c>
+      <c r="K20" s="42">
+        <v>8</v>
+      </c>
+      <c r="L20" s="42">
+        <v>8</v>
+      </c>
+      <c r="M20" s="42">
+        <v>8</v>
+      </c>
       <c r="N20" s="53"/>
       <c r="O20" s="42"/>
       <c r="P20" s="43"/>
@@ -5040,7 +5180,7 @@
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
+      <c r="N21" s="80"/>
       <c r="O21" s="56"/>
       <c r="P21" s="56"/>
       <c r="Q21" s="44">
@@ -5087,8 +5227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F346F8-B11F-46DD-B3FE-6347E11FF9F9}">
   <dimension ref="B1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5271,7 +5411,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" ref="G8:G19" si="1">G7-E7</f>
+        <f t="shared" ref="G8:G23" si="1">G7-E7</f>
         <v>107</v>
       </c>
       <c r="T8" s="26"/>
@@ -5520,7 +5660,7 @@
       </c>
       <c r="E19" s="15">
         <f>SUM(Calendar!B18:H18)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
@@ -5543,13 +5683,16 @@
       </c>
       <c r="E20" s="15">
         <f>SUM(Calendar!B19:H19)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="13">
@@ -5563,13 +5706,16 @@
       </c>
       <c r="E21" s="15">
         <f>SUM(Calendar!B20:H20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="20">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="18">
@@ -5589,7 +5735,10 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="15">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="17">
@@ -5609,7 +5758,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="15">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="2:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="15"/>
@@ -5620,7 +5772,10 @@
         <f>SUM(D5:D23)</f>
         <v>150</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="23">
+        <f>SUM(E5:E23)</f>
+        <v>113</v>
+      </c>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
@@ -5845,7 +6000,7 @@
         <v>246</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" ref="G35:G43" si="4">G34-E34</f>
+        <f t="shared" ref="G35:G47" si="4">G34-E34</f>
         <v>252</v>
       </c>
     </row>
@@ -5919,24 +6074,24 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="79">
+      <c r="B39" s="76">
         <v>11</v>
       </c>
-      <c r="C39" s="80">
+      <c r="C39" s="77">
         <v>45201</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="78">
         <v>23</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="78">
         <f>SUM(Calendar!J14:P14)</f>
         <v>32</v>
       </c>
-      <c r="F39" s="82">
+      <c r="F39" s="79">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="78">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
@@ -5965,20 +6120,20 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="76">
+      <c r="B41" s="73">
         <v>13</v>
       </c>
-      <c r="C41" s="77">
+      <c r="C41" s="74">
         <v>45215</v>
       </c>
-      <c r="D41" s="78">
+      <c r="D41" s="75">
         <v>3</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="75">
         <f>SUM(Calendar!J16:P16)</f>
         <v>3</v>
       </c>
-      <c r="F41" s="78">
+      <c r="F41" s="75">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
@@ -5988,20 +6143,20 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="76">
+      <c r="B42" s="73">
         <v>14</v>
       </c>
-      <c r="C42" s="77">
+      <c r="C42" s="74">
         <v>45222</v>
       </c>
-      <c r="D42" s="78">
+      <c r="D42" s="75">
         <v>3</v>
       </c>
-      <c r="E42" s="78">
+      <c r="E42" s="75">
         <f>SUM(Calendar!J17:P17)</f>
         <v>2</v>
       </c>
-      <c r="F42" s="78">
+      <c r="F42" s="75">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
@@ -6022,7 +6177,7 @@
       </c>
       <c r="E43" s="15">
         <f>SUM(Calendar!J18:P18)</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="3"/>
@@ -6045,13 +6200,16 @@
       </c>
       <c r="E44" s="15">
         <f>SUM(Calendar!J19:P19)</f>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="15">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B45" s="18">
@@ -6065,13 +6223,16 @@
       </c>
       <c r="E45" s="15">
         <f>SUM(Calendar!J20:P20)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F45" s="20">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G45" s="15"/>
+      <c r="G45" s="15">
+        <f t="shared" si="4"/>
+        <v>23.5</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B46" s="18">
@@ -6091,7 +6252,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <f t="shared" si="4"/>
+        <v>-8.5</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B47" s="18">
@@ -6111,7 +6275,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G47" s="15"/>
+      <c r="G47" s="15">
+        <f t="shared" si="4"/>
+        <v>-8.5</v>
+      </c>
     </row>
     <row r="48" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B48" s="15"/>
@@ -6124,7 +6291,7 @@
       </c>
       <c r="E48" s="15">
         <f>SUM(E29:E47)</f>
-        <v>227.5</v>
+        <v>308.5</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -6150,19 +6317,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3A90E3-FE87-4BB6-A9BE-2D3469258ACC}">
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.453125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="26" customWidth="1"/>
     <col min="3" max="3" width="35.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.7265625" customWidth="1"/>
     <col min="5" max="5" width="26.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6241,7 +6408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="62" x14ac:dyDescent="0.35">
       <c r="B9" s="65" t="s">
         <v>39</v>
       </c>
@@ -6258,7 +6425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="62" x14ac:dyDescent="0.35">
       <c r="B10" s="65" t="s">
         <v>40</v>
       </c>
@@ -6353,7 +6520,7 @@
       <c r="D15" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="72" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="63" t="s">
@@ -6361,52 +6528,91 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="66"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="66"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="66"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="66"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="66"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="66"/>
-      <c r="C21" s="8"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="2:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+    </row>
+    <row r="20" spans="2:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="29"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="66"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="30"/>
+    <row r="22" spans="2:6" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -6438,10 +6644,10 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="67"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="31"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -6458,9 +6664,17 @@
       <c r="E29" s="31"/>
       <c r="F29" s="1"/>
     </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="67"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:F4"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
